--- a/12_HandleTable/02 私有句柄表 句柄降权保护.xlsx
+++ b/12_HandleTable/02 私有句柄表 句柄降权保护.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\12_HandleTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF848BE5-4C9E-41CA-B818-9987A7A485D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816B3D1A-0E03-46E9-B59A-C985A30FE455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>私有句柄表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,6 +338,24 @@
   <si>
     <t>3、私有句柄表的权限掩码 handle_table_entry.GrantedAccess (句柄降权保护)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 遍历私有句柄表，是否存在被保护进程句柄</t>
+  </si>
+  <si>
+    <t>// +0xf4 私有句柄表</t>
+  </si>
+  <si>
+    <t>// 法一：使用未文档化api</t>
+  </si>
+  <si>
+    <t>//ExEnumHandleTable(*(ULONG_PTR*)((PUCHAR)pProcess + 0xf4), EnumHandleProcedure, TargetProcess, NULL);</t>
+  </si>
+  <si>
+    <t>// 法二：自己遍历私有句柄表</t>
+  </si>
+  <si>
+    <t>SetHandleAccess(TargetProcess, pProcess);</t>
   </si>
 </sst>
 </file>
@@ -880,48 +898,102 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
